--- a/server/excel/templates/Transmissor de Nível.xlsx
+++ b/server/excel/templates/Transmissor de Nível.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugol\OneDrive\Documentos\GitHub\-Lista-de-Itens-para-Folha-de-dados\server\excel\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae86ac8ea500c045/Documentos/GitHub/-Lista-de-Itens-para-Folha-de-dados/server/excel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{440F4C65-43B3-4D8F-B4D4-81DF60FCF965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{440F4C65-43B3-4D8F-B4D4-81DF60FCF965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7702618-7AA6-4F46-AD1D-AE7DD07B4F62}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="613" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="613" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>FOLHA DE DADOS</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>N°</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,6 +504,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="65">
     <border>
@@ -1287,7 +1296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1359,6 +1368,207 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1368,15 +1578,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1386,197 +1587,347 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1590,374 +1941,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2539,104 +2563,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="88" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="91"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
     </row>
     <row r="2" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="53" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="92">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="42">
         <v>1</v>
       </c>
-      <c r="M3" s="94" t="s">
+      <c r="M3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="96">
+      <c r="N3" s="46">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="97"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="47"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="53" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
       <c r="N5" s="56"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="54"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="57"/>
       <c r="F6" s="57"/>
       <c r="G6" s="57"/>
@@ -2649,233 +2673,233 @@
       <c r="N6" s="58"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="53" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
       <c r="N7" s="56"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="60"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="38"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="53" t="s">
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="69"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="67"/>
     </row>
     <row r="10" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="71"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="69"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="74"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="72"/>
     </row>
     <row r="12" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="77"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="75"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="81"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="79"/>
     </row>
     <row r="14" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="79"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="83"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="81"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="41"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="50"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="41"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="50"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="41"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="50"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="41"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="50"/>
     </row>
     <row r="19" spans="1:14" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="41"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="50"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -3051,132 +3075,132 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="30"/>
+      <c r="A31" s="82"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="84"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="30"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="84"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="30"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="83"/>
+      <c r="M33" s="83"/>
+      <c r="N33" s="84"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="30"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="84"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="30"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="83"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="84"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="30"/>
+      <c r="A36" s="82"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="83"/>
+      <c r="N36" s="84"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="30"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="83"/>
+      <c r="N37" s="84"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="30"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="83"/>
+      <c r="N38" s="84"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -3211,509 +3235,509 @@
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="36"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="86"/>
+      <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="37"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="39"/>
+      <c r="A42" s="88"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="89"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="90"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="30"/>
+      <c r="A43" s="82"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="83"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="83"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="83"/>
+      <c r="N43" s="84"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="30"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="83"/>
+      <c r="N44" s="84"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="30"/>
+      <c r="A45" s="82"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="83"/>
+      <c r="M45" s="83"/>
+      <c r="N45" s="84"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="30"/>
+      <c r="A46" s="82"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="83"/>
+      <c r="M46" s="83"/>
+      <c r="N46" s="84"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="30"/>
+      <c r="A47" s="82"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
+      <c r="L47" s="83"/>
+      <c r="M47" s="83"/>
+      <c r="N47" s="84"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="30"/>
+      <c r="A48" s="82"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83"/>
+      <c r="K48" s="83"/>
+      <c r="L48" s="83"/>
+      <c r="M48" s="83"/>
+      <c r="N48" s="84"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="30"/>
+      <c r="A49" s="82"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="83"/>
+      <c r="K49" s="83"/>
+      <c r="L49" s="83"/>
+      <c r="M49" s="83"/>
+      <c r="N49" s="84"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="30"/>
+      <c r="A50" s="82"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="83"/>
+      <c r="K50" s="83"/>
+      <c r="L50" s="83"/>
+      <c r="M50" s="83"/>
+      <c r="N50" s="84"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="30"/>
+      <c r="A51" s="82"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="83"/>
+      <c r="K51" s="83"/>
+      <c r="L51" s="83"/>
+      <c r="M51" s="83"/>
+      <c r="N51" s="84"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="30"/>
+      <c r="A52" s="82"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="83"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="83"/>
+      <c r="N52" s="84"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="30"/>
+      <c r="A53" s="82"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="83"/>
+      <c r="J53" s="83"/>
+      <c r="K53" s="83"/>
+      <c r="L53" s="83"/>
+      <c r="M53" s="83"/>
+      <c r="N53" s="84"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="30"/>
+      <c r="A54" s="82"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="83"/>
+      <c r="J54" s="83"/>
+      <c r="K54" s="83"/>
+      <c r="L54" s="83"/>
+      <c r="M54" s="83"/>
+      <c r="N54" s="84"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="30"/>
+      <c r="A55" s="82"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="83"/>
+      <c r="J55" s="83"/>
+      <c r="K55" s="83"/>
+      <c r="L55" s="83"/>
+      <c r="M55" s="83"/>
+      <c r="N55" s="84"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="30"/>
+      <c r="A56" s="82"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
+      <c r="I56" s="83"/>
+      <c r="J56" s="83"/>
+      <c r="K56" s="83"/>
+      <c r="L56" s="83"/>
+      <c r="M56" s="83"/>
+      <c r="N56" s="84"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="30"/>
+      <c r="A57" s="82"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="83"/>
+      <c r="I57" s="83"/>
+      <c r="J57" s="83"/>
+      <c r="K57" s="83"/>
+      <c r="L57" s="83"/>
+      <c r="M57" s="83"/>
+      <c r="N57" s="84"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="30"/>
+      <c r="A58" s="82"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="83"/>
+      <c r="J58" s="83"/>
+      <c r="K58" s="83"/>
+      <c r="L58" s="83"/>
+      <c r="M58" s="83"/>
+      <c r="N58" s="84"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="30"/>
+      <c r="A59" s="82"/>
+      <c r="B59" s="83"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="83"/>
+      <c r="K59" s="83"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="83"/>
+      <c r="N59" s="84"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="30"/>
+      <c r="A60" s="82"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="83"/>
+      <c r="J60" s="83"/>
+      <c r="K60" s="83"/>
+      <c r="L60" s="83"/>
+      <c r="M60" s="83"/>
+      <c r="N60" s="84"/>
     </row>
     <row r="61" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="29"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="30"/>
+      <c r="A61" s="82"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+      <c r="I61" s="83"/>
+      <c r="J61" s="83"/>
+      <c r="K61" s="83"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="83"/>
+      <c r="N61" s="84"/>
     </row>
     <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="28"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="30"/>
+      <c r="A62" s="82"/>
+      <c r="B62" s="83"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
+      <c r="I62" s="83"/>
+      <c r="J62" s="83"/>
+      <c r="K62" s="83"/>
+      <c r="L62" s="83"/>
+      <c r="M62" s="83"/>
+      <c r="N62" s="84"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="30"/>
+      <c r="A63" s="82"/>
+      <c r="B63" s="83"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="83"/>
+      <c r="I63" s="83"/>
+      <c r="J63" s="83"/>
+      <c r="K63" s="83"/>
+      <c r="L63" s="83"/>
+      <c r="M63" s="83"/>
+      <c r="N63" s="84"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="28"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="30"/>
+      <c r="A64" s="82"/>
+      <c r="B64" s="83"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="83"/>
+      <c r="J64" s="83"/>
+      <c r="K64" s="83"/>
+      <c r="L64" s="83"/>
+      <c r="M64" s="83"/>
+      <c r="N64" s="84"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="30"/>
+      <c r="A65" s="82"/>
+      <c r="B65" s="83"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="83"/>
+      <c r="I65" s="83"/>
+      <c r="J65" s="83"/>
+      <c r="K65" s="83"/>
+      <c r="L65" s="83"/>
+      <c r="M65" s="83"/>
+      <c r="N65" s="84"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="28"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="30"/>
+      <c r="A66" s="82"/>
+      <c r="B66" s="83"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="83"/>
+      <c r="I66" s="83"/>
+      <c r="J66" s="83"/>
+      <c r="K66" s="83"/>
+      <c r="L66" s="83"/>
+      <c r="M66" s="83"/>
+      <c r="N66" s="84"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="28"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="30"/>
+      <c r="A67" s="82"/>
+      <c r="B67" s="83"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="83"/>
+      <c r="K67" s="83"/>
+      <c r="L67" s="83"/>
+      <c r="M67" s="83"/>
+      <c r="N67" s="84"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="29"/>
-      <c r="N68" s="30"/>
+      <c r="A68" s="82"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
+      <c r="I68" s="83"/>
+      <c r="J68" s="83"/>
+      <c r="K68" s="83"/>
+      <c r="L68" s="83"/>
+      <c r="M68" s="83"/>
+      <c r="N68" s="84"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="29"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="29"/>
-      <c r="N69" s="30"/>
+      <c r="A69" s="82"/>
+      <c r="B69" s="83"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="83"/>
+      <c r="I69" s="83"/>
+      <c r="J69" s="83"/>
+      <c r="K69" s="83"/>
+      <c r="L69" s="83"/>
+      <c r="M69" s="83"/>
+      <c r="N69" s="84"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="28"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="30"/>
+      <c r="A70" s="82"/>
+      <c r="B70" s="83"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="83"/>
+      <c r="E70" s="83"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="83"/>
+      <c r="H70" s="83"/>
+      <c r="I70" s="83"/>
+      <c r="J70" s="83"/>
+      <c r="K70" s="83"/>
+      <c r="L70" s="83"/>
+      <c r="M70" s="83"/>
+      <c r="N70" s="84"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="29"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="30"/>
+      <c r="A71" s="82"/>
+      <c r="B71" s="83"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="83"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="83"/>
+      <c r="I71" s="83"/>
+      <c r="J71" s="83"/>
+      <c r="K71" s="83"/>
+      <c r="L71" s="83"/>
+      <c r="M71" s="83"/>
+      <c r="N71" s="84"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="32"/>
-      <c r="C72" s="33"/>
+      <c r="B72" s="96"/>
+      <c r="C72" s="97"/>
       <c r="D72" s="4">
         <v>0</v>
       </c>
@@ -3749,11 +3773,11 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="33"/>
+      <c r="B73" s="96"/>
+      <c r="C73" s="97"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="4"/>
@@ -3767,11 +3791,11 @@
       <c r="N73" s="6"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="32"/>
-      <c r="C74" s="33"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="97"/>
       <c r="D74" s="5"/>
       <c r="E74" s="4"/>
       <c r="F74" s="7"/>
@@ -3785,11 +3809,11 @@
       <c r="N74" s="8"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="33"/>
+      <c r="B75" s="96"/>
+      <c r="C75" s="97"/>
       <c r="D75" s="5"/>
       <c r="E75" s="4"/>
       <c r="F75" s="7"/>
@@ -3803,11 +3827,11 @@
       <c r="N75" s="8"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B76" s="32"/>
-      <c r="C76" s="33"/>
+      <c r="B76" s="96"/>
+      <c r="C76" s="97"/>
       <c r="D76" s="5"/>
       <c r="E76" s="4"/>
       <c r="F76" s="7"/>
@@ -3821,11 +3845,11 @@
       <c r="N76" s="8"/>
     </row>
     <row r="77" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="27"/>
+      <c r="B77" s="93"/>
+      <c r="C77" s="94"/>
       <c r="D77" s="9"/>
       <c r="E77" s="22"/>
       <c r="F77" s="10"/>
@@ -3840,15 +3864,44 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:N2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:N67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:N69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:N71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:N61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:N63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:N65"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:N46"/>
+    <mergeCell ref="A47:A57"/>
+    <mergeCell ref="B47:N57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:N59"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:N44"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:N32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:N34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:N36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:N38"/>
+    <mergeCell ref="A41:N42"/>
+    <mergeCell ref="D19:N19"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:N18"/>
     <mergeCell ref="A5:C8"/>
@@ -3864,44 +3917,15 @@
     <mergeCell ref="B13:N14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:N16"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:N44"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:N32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:N34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:N36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:N38"/>
-    <mergeCell ref="A41:N42"/>
-    <mergeCell ref="D19:N19"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:N46"/>
-    <mergeCell ref="A47:A57"/>
-    <mergeCell ref="B47:N57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:N59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:N61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:N63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:N65"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:N67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:N69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:N71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:N2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3920,8 +3944,8 @@
   </sheetPr>
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:U4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3938,54 +3962,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="189"/>
-      <c r="B1" s="182"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="196" t="s">
+      <c r="A1" s="103"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="198"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="114"/>
       <c r="K1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="200"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="116"/>
       <c r="S1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="199"/>
-      <c r="U1" s="201"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="117"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="191"/>
-      <c r="B2" s="192"/>
-      <c r="C2" s="193"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="108"/>
       <c r="D2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="203"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="119"/>
       <c r="R2" s="16" t="s">
         <v>21</v>
       </c>
@@ -4000,1093 +4024,1153 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="191"/>
-      <c r="B3" s="192"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="204" t="s">
+      <c r="A3" s="106"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="205"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="205"/>
-      <c r="T3" s="205"/>
-      <c r="U3" s="206"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="122"/>
     </row>
     <row r="4" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="194"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="195"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="208"/>
-      <c r="J4" s="208"/>
-      <c r="K4" s="208"/>
-      <c r="L4" s="208"/>
-      <c r="M4" s="208"/>
-      <c r="N4" s="208"/>
-      <c r="O4" s="208"/>
-      <c r="P4" s="208"/>
-      <c r="Q4" s="208"/>
-      <c r="R4" s="208"/>
-      <c r="S4" s="208"/>
-      <c r="T4" s="208"/>
-      <c r="U4" s="209"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="124"/>
+      <c r="T4" s="124"/>
+      <c r="U4" s="125"/>
     </row>
     <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="211"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="213"/>
-      <c r="G5" s="213"/>
-      <c r="H5" s="213"/>
-      <c r="I5" s="213"/>
-      <c r="J5" s="213"/>
-      <c r="K5" s="213"/>
-      <c r="L5" s="213"/>
-      <c r="M5" s="213"/>
-      <c r="N5" s="213"/>
-      <c r="O5" s="213"/>
-      <c r="P5" s="213"/>
-      <c r="Q5" s="213"/>
-      <c r="R5" s="213"/>
-      <c r="S5" s="213"/>
-      <c r="T5" s="213"/>
-      <c r="U5" s="214"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="130"/>
+      <c r="T5" s="130"/>
+      <c r="U5" s="131"/>
     </row>
     <row r="6" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="215" t="s">
+      <c r="A6" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="216"/>
-      <c r="C6" s="216"/>
-      <c r="D6" s="217"/>
-      <c r="E6" s="217"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="217"/>
-      <c r="H6" s="217"/>
-      <c r="I6" s="217"/>
-      <c r="J6" s="217"/>
-      <c r="K6" s="217"/>
-      <c r="L6" s="217"/>
-      <c r="M6" s="217"/>
-      <c r="N6" s="217"/>
-      <c r="O6" s="217"/>
-      <c r="P6" s="217"/>
-      <c r="Q6" s="217"/>
-      <c r="R6" s="217"/>
-      <c r="S6" s="217"/>
-      <c r="T6" s="217"/>
-      <c r="U6" s="218"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="216"/>
+      <c r="F6" s="216"/>
+      <c r="G6" s="216"/>
+      <c r="H6" s="216"/>
+      <c r="I6" s="216"/>
+      <c r="J6" s="216"/>
+      <c r="K6" s="216"/>
+      <c r="L6" s="216"/>
+      <c r="M6" s="216"/>
+      <c r="N6" s="216"/>
+      <c r="O6" s="216"/>
+      <c r="P6" s="216"/>
+      <c r="Q6" s="216"/>
+      <c r="R6" s="216"/>
+      <c r="S6" s="216"/>
+      <c r="T6" s="216"/>
+      <c r="U6" s="217"/>
     </row>
     <row r="7" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="219" t="s">
+      <c r="A7" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="220"/>
-      <c r="C7" s="221"/>
-      <c r="D7" s="222"/>
-      <c r="E7" s="223"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="223"/>
-      <c r="I7" s="223"/>
-      <c r="J7" s="223"/>
-      <c r="K7" s="223"/>
-      <c r="L7" s="223"/>
-      <c r="M7" s="223"/>
-      <c r="N7" s="223"/>
-      <c r="O7" s="223"/>
-      <c r="P7" s="223"/>
-      <c r="Q7" s="223"/>
-      <c r="R7" s="223"/>
-      <c r="S7" s="223"/>
-      <c r="T7" s="223"/>
-      <c r="U7" s="224"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+      <c r="O7" s="138"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="138"/>
+      <c r="S7" s="138"/>
+      <c r="T7" s="138"/>
+      <c r="U7" s="139"/>
     </row>
     <row r="8" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="175" t="s">
+      <c r="A8" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="179" t="s">
+      <c r="B8" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="180"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="182"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="182"/>
-      <c r="I8" s="182"/>
-      <c r="J8" s="182"/>
-      <c r="K8" s="182"/>
-      <c r="L8" s="182"/>
-      <c r="M8" s="182"/>
-      <c r="N8" s="182"/>
-      <c r="O8" s="182"/>
-      <c r="P8" s="182"/>
-      <c r="Q8" s="182"/>
-      <c r="R8" s="182"/>
-      <c r="S8" s="182"/>
-      <c r="T8" s="182"/>
-      <c r="U8" s="183"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="159"/>
     </row>
     <row r="9" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="176"/>
-      <c r="B9" s="167" t="s">
+      <c r="A9" s="153"/>
+      <c r="B9" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="112"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="161"/>
+      <c r="K9" s="161"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="161"/>
+      <c r="P9" s="161"/>
+      <c r="Q9" s="161"/>
+      <c r="R9" s="161"/>
+      <c r="S9" s="161"/>
+      <c r="T9" s="161"/>
+      <c r="U9" s="162"/>
     </row>
     <row r="10" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="177"/>
-      <c r="B10" s="167" t="s">
+      <c r="A10" s="154"/>
+      <c r="B10" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="103"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="112"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="161"/>
+      <c r="P10" s="161"/>
+      <c r="Q10" s="161"/>
+      <c r="R10" s="161"/>
+      <c r="S10" s="161"/>
+      <c r="T10" s="161"/>
+      <c r="U10" s="162"/>
     </row>
     <row r="11" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="178"/>
-      <c r="B11" s="184" t="s">
+      <c r="A11" s="155"/>
+      <c r="B11" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="162"/>
-      <c r="D11" s="164"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="165"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="165"/>
-      <c r="L11" s="165"/>
-      <c r="M11" s="165"/>
-      <c r="N11" s="165"/>
-      <c r="O11" s="165"/>
-      <c r="P11" s="165"/>
-      <c r="Q11" s="165"/>
-      <c r="R11" s="165"/>
-      <c r="S11" s="165"/>
-      <c r="T11" s="165"/>
-      <c r="U11" s="166"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="100"/>
     </row>
     <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="178"/>
-      <c r="B12" s="143" t="s">
+      <c r="A12" s="155"/>
+      <c r="B12" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="162"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="165"/>
-      <c r="M12" s="165"/>
-      <c r="N12" s="165"/>
-      <c r="O12" s="165"/>
-      <c r="P12" s="165"/>
-      <c r="Q12" s="165"/>
-      <c r="R12" s="165"/>
-      <c r="S12" s="165"/>
-      <c r="T12" s="165"/>
-      <c r="U12" s="166"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="99"/>
+      <c r="U12" s="100"/>
     </row>
     <row r="13" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="178"/>
-      <c r="B13" s="184" t="s">
+      <c r="A13" s="155"/>
+      <c r="B13" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="162"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="165"/>
-      <c r="K13" s="165"/>
-      <c r="L13" s="165"/>
-      <c r="M13" s="165"/>
-      <c r="N13" s="165"/>
-      <c r="O13" s="165"/>
-      <c r="P13" s="165"/>
-      <c r="Q13" s="165"/>
-      <c r="R13" s="165"/>
-      <c r="S13" s="165"/>
-      <c r="T13" s="165"/>
-      <c r="U13" s="166"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="100"/>
     </row>
     <row r="14" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="178"/>
-      <c r="B14" s="184" t="s">
+      <c r="A14" s="155"/>
+      <c r="B14" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="162"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="165"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="165"/>
-      <c r="M14" s="165"/>
-      <c r="N14" s="165"/>
-      <c r="O14" s="165"/>
-      <c r="P14" s="165"/>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="165"/>
-      <c r="S14" s="165"/>
-      <c r="T14" s="165"/>
-      <c r="U14" s="166"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="100"/>
     </row>
     <row r="15" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="178"/>
-      <c r="B15" s="167" t="s">
+      <c r="A15" s="155"/>
+      <c r="B15" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="169"/>
-      <c r="M15" s="169"/>
-      <c r="N15" s="169"/>
-      <c r="O15" s="169"/>
-      <c r="P15" s="169"/>
-      <c r="Q15" s="169"/>
-      <c r="R15" s="169"/>
-      <c r="S15" s="169"/>
-      <c r="T15" s="169"/>
-      <c r="U15" s="170"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="144"/>
     </row>
     <row r="16" spans="1:21" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="178"/>
-      <c r="B16" s="185" t="s">
+      <c r="A16" s="155"/>
+      <c r="B16" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="186"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="141"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="141"/>
-      <c r="Q16" s="141"/>
-      <c r="R16" s="141"/>
-      <c r="S16" s="141"/>
-      <c r="T16" s="141"/>
-      <c r="U16" s="142"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="176"/>
+      <c r="L16" s="176"/>
+      <c r="M16" s="176"/>
+      <c r="N16" s="176"/>
+      <c r="O16" s="176"/>
+      <c r="P16" s="176"/>
+      <c r="Q16" s="176"/>
+      <c r="R16" s="176"/>
+      <c r="S16" s="176"/>
+      <c r="T16" s="176"/>
+      <c r="U16" s="177"/>
     </row>
     <row r="17" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="186" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="157" t="s">
+      <c r="B17" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="158"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
-      <c r="K17" s="160"/>
-      <c r="L17" s="160"/>
-      <c r="M17" s="160"/>
-      <c r="N17" s="160"/>
-      <c r="O17" s="160"/>
-      <c r="P17" s="160"/>
-      <c r="Q17" s="160"/>
-      <c r="R17" s="160"/>
-      <c r="S17" s="160"/>
-      <c r="T17" s="160"/>
-      <c r="U17" s="161"/>
+      <c r="C17" s="190"/>
+      <c r="D17" s="191"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="192"/>
+      <c r="L17" s="192"/>
+      <c r="M17" s="192"/>
+      <c r="N17" s="192"/>
+      <c r="O17" s="192"/>
+      <c r="P17" s="192"/>
+      <c r="Q17" s="192"/>
+      <c r="R17" s="192"/>
+      <c r="S17" s="192"/>
+      <c r="T17" s="192"/>
+      <c r="U17" s="193"/>
     </row>
     <row r="18" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="124"/>
-      <c r="B18" s="143" t="s">
+      <c r="A18" s="187"/>
+      <c r="B18" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="162"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="111"/>
-      <c r="P18" s="111"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="111"/>
-      <c r="S18" s="111"/>
-      <c r="T18" s="111"/>
-      <c r="U18" s="112"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="161"/>
+      <c r="Q18" s="161"/>
+      <c r="R18" s="161"/>
+      <c r="S18" s="161"/>
+      <c r="T18" s="161"/>
+      <c r="U18" s="162"/>
     </row>
     <row r="19" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="124"/>
-      <c r="B19" s="143" t="s">
+      <c r="A19" s="187"/>
+      <c r="B19" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="162"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="111"/>
-      <c r="S19" s="111"/>
-      <c r="T19" s="111"/>
-      <c r="U19" s="112"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="161"/>
+      <c r="J19" s="161"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="161"/>
+      <c r="N19" s="161"/>
+      <c r="O19" s="161"/>
+      <c r="P19" s="161"/>
+      <c r="Q19" s="161"/>
+      <c r="R19" s="161"/>
+      <c r="S19" s="161"/>
+      <c r="T19" s="161"/>
+      <c r="U19" s="162"/>
     </row>
     <row r="20" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="124"/>
-      <c r="B20" s="143" t="s">
+      <c r="A20" s="187"/>
+      <c r="B20" s="166" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="144"/>
-      <c r="D20" s="163"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="187"/>
-      <c r="H20" s="187"/>
-      <c r="I20" s="187"/>
-      <c r="J20" s="187"/>
-      <c r="K20" s="187"/>
-      <c r="L20" s="187"/>
-      <c r="M20" s="187"/>
-      <c r="N20" s="187"/>
-      <c r="O20" s="187"/>
-      <c r="P20" s="187"/>
-      <c r="Q20" s="187"/>
-      <c r="R20" s="187"/>
-      <c r="S20" s="187"/>
-      <c r="T20" s="187"/>
-      <c r="U20" s="188"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="169"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="169"/>
+      <c r="K20" s="169"/>
+      <c r="L20" s="169"/>
+      <c r="M20" s="169"/>
+      <c r="N20" s="169"/>
+      <c r="O20" s="169"/>
+      <c r="P20" s="169"/>
+      <c r="Q20" s="169"/>
+      <c r="R20" s="169"/>
+      <c r="S20" s="169"/>
+      <c r="T20" s="169"/>
+      <c r="U20" s="170"/>
     </row>
     <row r="21" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="124"/>
-      <c r="B21" s="143" t="s">
+      <c r="A21" s="187"/>
+      <c r="B21" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="162"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="165"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="165"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="165"/>
-      <c r="O21" s="165"/>
-      <c r="P21" s="165"/>
-      <c r="Q21" s="165"/>
-      <c r="R21" s="165"/>
-      <c r="S21" s="165"/>
-      <c r="T21" s="165"/>
-      <c r="U21" s="166"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="100"/>
     </row>
     <row r="22" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="124"/>
-      <c r="B22" s="167" t="s">
+      <c r="A22" s="187"/>
+      <c r="B22" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="103"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="169"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="169"/>
-      <c r="K22" s="169"/>
-      <c r="L22" s="169"/>
-      <c r="M22" s="169"/>
-      <c r="N22" s="169"/>
-      <c r="O22" s="169"/>
-      <c r="P22" s="169"/>
-      <c r="Q22" s="169"/>
-      <c r="R22" s="169"/>
-      <c r="S22" s="169"/>
-      <c r="T22" s="169"/>
-      <c r="U22" s="170"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="143"/>
+      <c r="P22" s="143"/>
+      <c r="Q22" s="143"/>
+      <c r="R22" s="143"/>
+      <c r="S22" s="143"/>
+      <c r="T22" s="143"/>
+      <c r="U22" s="144"/>
     </row>
     <row r="23" spans="1:21" ht="21.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="124"/>
-      <c r="B23" s="167" t="s">
+      <c r="A23" s="187"/>
+      <c r="B23" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="169"/>
-      <c r="K23" s="169"/>
-      <c r="L23" s="169"/>
-      <c r="M23" s="169"/>
-      <c r="N23" s="169"/>
-      <c r="O23" s="169"/>
-      <c r="P23" s="169"/>
-      <c r="Q23" s="169"/>
-      <c r="R23" s="169"/>
-      <c r="S23" s="169"/>
-      <c r="T23" s="169"/>
-      <c r="U23" s="170"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="143"/>
+      <c r="P23" s="143"/>
+      <c r="Q23" s="143"/>
+      <c r="R23" s="143"/>
+      <c r="S23" s="143"/>
+      <c r="T23" s="143"/>
+      <c r="U23" s="144"/>
     </row>
     <row r="24" spans="1:21" ht="21.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="124"/>
-      <c r="B24" s="143" t="s">
+      <c r="A24" s="187"/>
+      <c r="B24" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="144"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="173"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="173"/>
-      <c r="M24" s="173"/>
-      <c r="N24" s="173"/>
-      <c r="O24" s="173"/>
-      <c r="P24" s="173"/>
-      <c r="Q24" s="173"/>
-      <c r="R24" s="173"/>
-      <c r="S24" s="173"/>
-      <c r="T24" s="173"/>
-      <c r="U24" s="174"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="150"/>
+      <c r="K24" s="150"/>
+      <c r="L24" s="150"/>
+      <c r="M24" s="150"/>
+      <c r="N24" s="150"/>
+      <c r="O24" s="150"/>
+      <c r="P24" s="150"/>
+      <c r="Q24" s="150"/>
+      <c r="R24" s="150"/>
+      <c r="S24" s="150"/>
+      <c r="T24" s="150"/>
+      <c r="U24" s="151"/>
     </row>
     <row r="25" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="125"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="146"/>
-      <c r="L25" s="146"/>
-      <c r="M25" s="146"/>
-      <c r="N25" s="146"/>
-      <c r="O25" s="146"/>
-      <c r="P25" s="146"/>
-      <c r="Q25" s="146"/>
-      <c r="R25" s="146"/>
-      <c r="S25" s="146"/>
-      <c r="T25" s="146"/>
-      <c r="U25" s="147"/>
+      <c r="A25" s="188"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="110"/>
+      <c r="U25" s="148"/>
     </row>
     <row r="26" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="148" t="s">
+      <c r="A26" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="150" t="s">
+      <c r="B26" s="181" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="151"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="153"/>
-      <c r="M26" s="153"/>
-      <c r="N26" s="153"/>
-      <c r="O26" s="153"/>
-      <c r="P26" s="153"/>
-      <c r="Q26" s="153"/>
-      <c r="R26" s="153"/>
-      <c r="S26" s="153"/>
-      <c r="T26" s="153"/>
-      <c r="U26" s="154"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="183"/>
+      <c r="L26" s="183"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="183"/>
+      <c r="O26" s="183"/>
+      <c r="P26" s="183"/>
+      <c r="Q26" s="183"/>
+      <c r="R26" s="183"/>
+      <c r="S26" s="183"/>
+      <c r="T26" s="183"/>
+      <c r="U26" s="184"/>
     </row>
     <row r="27" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="148"/>
-      <c r="B27" s="143" t="s">
+      <c r="A27" s="179"/>
+      <c r="B27" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="155"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="111"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="111"/>
-      <c r="P27" s="111"/>
-      <c r="Q27" s="111"/>
-      <c r="R27" s="111"/>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="112"/>
+      <c r="C27" s="185"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="161"/>
+      <c r="K27" s="161"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="161"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="161"/>
+      <c r="P27" s="161"/>
+      <c r="Q27" s="161"/>
+      <c r="R27" s="161"/>
+      <c r="S27" s="161"/>
+      <c r="T27" s="161"/>
+      <c r="U27" s="162"/>
     </row>
     <row r="28" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="148"/>
-      <c r="B28" s="143"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="111"/>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="111"/>
-      <c r="R28" s="111"/>
-      <c r="S28" s="111"/>
-      <c r="T28" s="111"/>
-      <c r="U28" s="112"/>
+      <c r="A28" s="179"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="161"/>
+      <c r="K28" s="161"/>
+      <c r="L28" s="161"/>
+      <c r="M28" s="161"/>
+      <c r="N28" s="161"/>
+      <c r="O28" s="161"/>
+      <c r="P28" s="161"/>
+      <c r="Q28" s="161"/>
+      <c r="R28" s="161"/>
+      <c r="S28" s="161"/>
+      <c r="T28" s="161"/>
+      <c r="U28" s="162"/>
     </row>
     <row r="29" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="148"/>
-      <c r="B29" s="143"/>
-      <c r="C29" s="155"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="111"/>
-      <c r="R29" s="111"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="111"/>
-      <c r="U29" s="112"/>
+      <c r="A29" s="179"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="161"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="161"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="161"/>
+      <c r="N29" s="161"/>
+      <c r="O29" s="161"/>
+      <c r="P29" s="161"/>
+      <c r="Q29" s="161"/>
+      <c r="R29" s="161"/>
+      <c r="S29" s="161"/>
+      <c r="T29" s="161"/>
+      <c r="U29" s="162"/>
     </row>
     <row r="30" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="149"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="146"/>
-      <c r="M30" s="146"/>
-      <c r="N30" s="146"/>
-      <c r="O30" s="146"/>
-      <c r="P30" s="146"/>
-      <c r="Q30" s="146"/>
-      <c r="R30" s="146"/>
-      <c r="S30" s="146"/>
-      <c r="T30" s="146"/>
-      <c r="U30" s="147"/>
+      <c r="A30" s="180"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="110"/>
+      <c r="N30" s="110"/>
+      <c r="O30" s="110"/>
+      <c r="P30" s="110"/>
+      <c r="Q30" s="110"/>
+      <c r="R30" s="110"/>
+      <c r="S30" s="110"/>
+      <c r="T30" s="110"/>
+      <c r="U30" s="148"/>
     </row>
     <row r="31" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="108" t="s">
+      <c r="A31" s="194" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="205" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="116"/>
-      <c r="D31" s="117" t="s">
+      <c r="C31" s="206"/>
+      <c r="D31" s="207" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="117" t="s">
+      <c r="E31" s="208"/>
+      <c r="F31" s="208"/>
+      <c r="G31" s="208"/>
+      <c r="H31" s="208"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="207" t="s">
         <v>48</v>
       </c>
-      <c r="K31" s="118"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="118"/>
-      <c r="N31" s="118"/>
-      <c r="O31" s="118"/>
-      <c r="P31" s="117" t="s">
+      <c r="K31" s="208"/>
+      <c r="L31" s="208"/>
+      <c r="M31" s="208"/>
+      <c r="N31" s="208"/>
+      <c r="O31" s="208"/>
+      <c r="P31" s="207" t="s">
         <v>49</v>
       </c>
-      <c r="Q31" s="118"/>
-      <c r="R31" s="118"/>
-      <c r="S31" s="118"/>
-      <c r="T31" s="118"/>
-      <c r="U31" s="119"/>
+      <c r="Q31" s="208"/>
+      <c r="R31" s="208"/>
+      <c r="S31" s="208"/>
+      <c r="T31" s="208"/>
+      <c r="U31" s="209"/>
     </row>
     <row r="32" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="109"/>
-      <c r="B32" s="120" t="s">
+      <c r="A32" s="203"/>
+      <c r="B32" s="210" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="121"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="138"/>
-      <c r="L32" s="138"/>
-      <c r="M32" s="138"/>
-      <c r="N32" s="138"/>
-      <c r="O32" s="139"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="105"/>
-      <c r="R32" s="105"/>
-      <c r="S32" s="105"/>
-      <c r="T32" s="105"/>
-      <c r="U32" s="107"/>
+      <c r="C32" s="211"/>
+      <c r="D32" s="218" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="219"/>
+      <c r="F32" s="219"/>
+      <c r="G32" s="219"/>
+      <c r="H32" s="219"/>
+      <c r="I32" s="220"/>
+      <c r="J32" s="221"/>
+      <c r="K32" s="222"/>
+      <c r="L32" s="222"/>
+      <c r="M32" s="222"/>
+      <c r="N32" s="222"/>
+      <c r="O32" s="223"/>
+      <c r="P32" s="218" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q32" s="219"/>
+      <c r="R32" s="219"/>
+      <c r="S32" s="219"/>
+      <c r="T32" s="219"/>
+      <c r="U32" s="224"/>
     </row>
     <row r="33" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="109"/>
-      <c r="B33" s="102" t="s">
+      <c r="A33" s="203"/>
+      <c r="B33" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="103"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="105"/>
-      <c r="O33" s="106"/>
-      <c r="P33" s="104"/>
-      <c r="Q33" s="105"/>
-      <c r="R33" s="105"/>
-      <c r="S33" s="105"/>
-      <c r="T33" s="105"/>
-      <c r="U33" s="107"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="218"/>
+      <c r="E33" s="219"/>
+      <c r="F33" s="219"/>
+      <c r="G33" s="219"/>
+      <c r="H33" s="219"/>
+      <c r="I33" s="220"/>
+      <c r="J33" s="218"/>
+      <c r="K33" s="219"/>
+      <c r="L33" s="219"/>
+      <c r="M33" s="219"/>
+      <c r="N33" s="219"/>
+      <c r="O33" s="220"/>
+      <c r="P33" s="218"/>
+      <c r="Q33" s="219"/>
+      <c r="R33" s="219"/>
+      <c r="S33" s="219"/>
+      <c r="T33" s="219"/>
+      <c r="U33" s="224"/>
     </row>
     <row r="34" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="109"/>
-      <c r="B34" s="102" t="s">
+      <c r="A34" s="203"/>
+      <c r="B34" s="173" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="103"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="105"/>
-      <c r="O34" s="106"/>
-      <c r="P34" s="104"/>
-      <c r="Q34" s="105"/>
-      <c r="R34" s="105"/>
-      <c r="S34" s="105"/>
-      <c r="T34" s="105"/>
-      <c r="U34" s="107"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="219"/>
+      <c r="F34" s="219"/>
+      <c r="G34" s="219"/>
+      <c r="H34" s="219"/>
+      <c r="I34" s="220"/>
+      <c r="J34" s="218"/>
+      <c r="K34" s="219"/>
+      <c r="L34" s="219"/>
+      <c r="M34" s="219"/>
+      <c r="N34" s="219"/>
+      <c r="O34" s="220"/>
+      <c r="P34" s="218"/>
+      <c r="Q34" s="219"/>
+      <c r="R34" s="219"/>
+      <c r="S34" s="219"/>
+      <c r="T34" s="219"/>
+      <c r="U34" s="224"/>
     </row>
     <row r="35" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="109"/>
+      <c r="A35" s="203"/>
       <c r="B35" s="23" t="s">
         <v>59</v>
       </c>
       <c r="C35" s="24"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
-      <c r="N35" s="105"/>
-      <c r="O35" s="106"/>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="105"/>
-      <c r="R35" s="105"/>
-      <c r="S35" s="105"/>
-      <c r="T35" s="105"/>
-      <c r="U35" s="107"/>
+      <c r="D35" s="218"/>
+      <c r="E35" s="219"/>
+      <c r="F35" s="219"/>
+      <c r="G35" s="219"/>
+      <c r="H35" s="219"/>
+      <c r="I35" s="220"/>
+      <c r="J35" s="218"/>
+      <c r="K35" s="219"/>
+      <c r="L35" s="219"/>
+      <c r="M35" s="219"/>
+      <c r="N35" s="219"/>
+      <c r="O35" s="220"/>
+      <c r="P35" s="218"/>
+      <c r="Q35" s="219"/>
+      <c r="R35" s="219"/>
+      <c r="S35" s="219"/>
+      <c r="T35" s="219"/>
+      <c r="U35" s="224"/>
     </row>
     <row r="36" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="109"/>
-      <c r="B36" s="102" t="s">
+      <c r="A36" s="203"/>
+      <c r="B36" s="173" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="103"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="105"/>
-      <c r="N36" s="105"/>
-      <c r="O36" s="106"/>
-      <c r="P36" s="104"/>
-      <c r="Q36" s="105"/>
-      <c r="R36" s="105"/>
-      <c r="S36" s="105"/>
-      <c r="T36" s="105"/>
-      <c r="U36" s="107"/>
+      <c r="C36" s="141"/>
+      <c r="D36" s="218"/>
+      <c r="E36" s="219"/>
+      <c r="F36" s="219"/>
+      <c r="G36" s="219"/>
+      <c r="H36" s="219"/>
+      <c r="I36" s="220"/>
+      <c r="J36" s="218"/>
+      <c r="K36" s="219"/>
+      <c r="L36" s="219"/>
+      <c r="M36" s="219"/>
+      <c r="N36" s="219"/>
+      <c r="O36" s="220"/>
+      <c r="P36" s="218"/>
+      <c r="Q36" s="219"/>
+      <c r="R36" s="219"/>
+      <c r="S36" s="219"/>
+      <c r="T36" s="219"/>
+      <c r="U36" s="224"/>
     </row>
     <row r="37" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="109"/>
-      <c r="B37" s="102" t="s">
+      <c r="A37" s="203"/>
+      <c r="B37" s="173" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="103"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="105"/>
-      <c r="N37" s="105"/>
-      <c r="O37" s="106"/>
-      <c r="P37" s="104"/>
-      <c r="Q37" s="105"/>
-      <c r="R37" s="105"/>
-      <c r="S37" s="105"/>
-      <c r="T37" s="105"/>
-      <c r="U37" s="107"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="171"/>
+      <c r="I37" s="174"/>
+      <c r="J37" s="160"/>
+      <c r="K37" s="171"/>
+      <c r="L37" s="171"/>
+      <c r="M37" s="171"/>
+      <c r="N37" s="171"/>
+      <c r="O37" s="174"/>
+      <c r="P37" s="160"/>
+      <c r="Q37" s="171"/>
+      <c r="R37" s="171"/>
+      <c r="S37" s="171"/>
+      <c r="T37" s="171"/>
+      <c r="U37" s="172"/>
     </row>
     <row r="38" spans="1:21" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="109"/>
-      <c r="B38" s="102" t="s">
+      <c r="A38" s="203"/>
+      <c r="B38" s="173" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="103"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="104"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="105"/>
-      <c r="M38" s="105"/>
-      <c r="N38" s="105"/>
-      <c r="O38" s="106"/>
-      <c r="P38" s="104"/>
-      <c r="Q38" s="105"/>
-      <c r="R38" s="105"/>
-      <c r="S38" s="105"/>
-      <c r="T38" s="105"/>
-      <c r="U38" s="107"/>
+      <c r="C38" s="141"/>
+      <c r="D38" s="218"/>
+      <c r="E38" s="219"/>
+      <c r="F38" s="219"/>
+      <c r="G38" s="219"/>
+      <c r="H38" s="219"/>
+      <c r="I38" s="220"/>
+      <c r="J38" s="218"/>
+      <c r="K38" s="219"/>
+      <c r="L38" s="219"/>
+      <c r="M38" s="219"/>
+      <c r="N38" s="219"/>
+      <c r="O38" s="220"/>
+      <c r="P38" s="218"/>
+      <c r="Q38" s="219"/>
+      <c r="R38" s="219"/>
+      <c r="S38" s="219"/>
+      <c r="T38" s="219"/>
+      <c r="U38" s="224"/>
     </row>
     <row r="39" spans="1:21" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="110"/>
-      <c r="B39" s="122" t="s">
+      <c r="A39" s="204"/>
+      <c r="B39" s="198" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="123"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="98"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="99"/>
-      <c r="M39" s="99"/>
-      <c r="N39" s="99"/>
-      <c r="O39" s="100"/>
-      <c r="P39" s="98"/>
-      <c r="Q39" s="99"/>
-      <c r="R39" s="99"/>
-      <c r="S39" s="99"/>
-      <c r="T39" s="99"/>
-      <c r="U39" s="101"/>
+      <c r="C39" s="199"/>
+      <c r="D39" s="212"/>
+      <c r="E39" s="213"/>
+      <c r="F39" s="213"/>
+      <c r="G39" s="213"/>
+      <c r="H39" s="213"/>
+      <c r="I39" s="214"/>
+      <c r="J39" s="212"/>
+      <c r="K39" s="213"/>
+      <c r="L39" s="213"/>
+      <c r="M39" s="213"/>
+      <c r="N39" s="213"/>
+      <c r="O39" s="214"/>
+      <c r="P39" s="212"/>
+      <c r="Q39" s="213"/>
+      <c r="R39" s="213"/>
+      <c r="S39" s="213"/>
+      <c r="T39" s="213"/>
+      <c r="U39" s="215"/>
     </row>
     <row r="40" spans="1:21" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="108" t="s">
+      <c r="A40" s="194" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="126" t="s">
+      <c r="B40" s="225" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="127"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="129"/>
-      <c r="G40" s="129"/>
-      <c r="H40" s="129"/>
-      <c r="I40" s="129"/>
-      <c r="J40" s="129"/>
-      <c r="K40" s="129"/>
-      <c r="L40" s="129"/>
-      <c r="M40" s="129"/>
-      <c r="N40" s="129"/>
-      <c r="O40" s="129"/>
-      <c r="P40" s="129"/>
-      <c r="Q40" s="129"/>
-      <c r="R40" s="129"/>
-      <c r="S40" s="129"/>
-      <c r="T40" s="129"/>
-      <c r="U40" s="130"/>
+      <c r="C40" s="226"/>
+      <c r="D40" s="227"/>
+      <c r="E40" s="228"/>
+      <c r="F40" s="228"/>
+      <c r="G40" s="228"/>
+      <c r="H40" s="228"/>
+      <c r="I40" s="228"/>
+      <c r="J40" s="228"/>
+      <c r="K40" s="228"/>
+      <c r="L40" s="228"/>
+      <c r="M40" s="228"/>
+      <c r="N40" s="228"/>
+      <c r="O40" s="228"/>
+      <c r="P40" s="228"/>
+      <c r="Q40" s="228"/>
+      <c r="R40" s="228"/>
+      <c r="S40" s="228"/>
+      <c r="T40" s="228"/>
+      <c r="U40" s="229"/>
     </row>
     <row r="41" spans="1:21" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="124"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="131"/>
-      <c r="E41" s="132"/>
-      <c r="F41" s="132"/>
-      <c r="G41" s="132"/>
-      <c r="H41" s="132"/>
-      <c r="I41" s="132"/>
-      <c r="J41" s="132"/>
-      <c r="K41" s="132"/>
-      <c r="L41" s="132"/>
-      <c r="M41" s="132"/>
-      <c r="N41" s="132"/>
-      <c r="O41" s="132"/>
-      <c r="P41" s="132"/>
-      <c r="Q41" s="132"/>
-      <c r="R41" s="132"/>
-      <c r="S41" s="132"/>
-      <c r="T41" s="132"/>
-      <c r="U41" s="133"/>
+      <c r="A41" s="187"/>
+      <c r="B41" s="173"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="195"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="196"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="196"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="196"/>
+      <c r="K41" s="196"/>
+      <c r="L41" s="196"/>
+      <c r="M41" s="196"/>
+      <c r="N41" s="196"/>
+      <c r="O41" s="196"/>
+      <c r="P41" s="196"/>
+      <c r="Q41" s="196"/>
+      <c r="R41" s="196"/>
+      <c r="S41" s="196"/>
+      <c r="T41" s="196"/>
+      <c r="U41" s="197"/>
     </row>
     <row r="42" spans="1:21" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="124"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="132"/>
-      <c r="K42" s="132"/>
-      <c r="L42" s="132"/>
-      <c r="M42" s="132"/>
-      <c r="N42" s="132"/>
-      <c r="O42" s="132"/>
-      <c r="P42" s="132"/>
-      <c r="Q42" s="132"/>
-      <c r="R42" s="132"/>
-      <c r="S42" s="132"/>
-      <c r="T42" s="132"/>
-      <c r="U42" s="133"/>
+      <c r="A42" s="187"/>
+      <c r="B42" s="173"/>
+      <c r="C42" s="141"/>
+      <c r="D42" s="195"/>
+      <c r="E42" s="196"/>
+      <c r="F42" s="196"/>
+      <c r="G42" s="196"/>
+      <c r="H42" s="196"/>
+      <c r="I42" s="196"/>
+      <c r="J42" s="196"/>
+      <c r="K42" s="196"/>
+      <c r="L42" s="196"/>
+      <c r="M42" s="196"/>
+      <c r="N42" s="196"/>
+      <c r="O42" s="196"/>
+      <c r="P42" s="196"/>
+      <c r="Q42" s="196"/>
+      <c r="R42" s="196"/>
+      <c r="S42" s="196"/>
+      <c r="T42" s="196"/>
+      <c r="U42" s="197"/>
     </row>
     <row r="43" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="124"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="132"/>
-      <c r="H43" s="132"/>
-      <c r="I43" s="132"/>
-      <c r="J43" s="132"/>
-      <c r="K43" s="132"/>
-      <c r="L43" s="132"/>
-      <c r="M43" s="132"/>
-      <c r="N43" s="132"/>
-      <c r="O43" s="132"/>
-      <c r="P43" s="132"/>
-      <c r="Q43" s="132"/>
-      <c r="R43" s="132"/>
-      <c r="S43" s="132"/>
-      <c r="T43" s="132"/>
-      <c r="U43" s="133"/>
+      <c r="A43" s="187"/>
+      <c r="B43" s="173"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="195"/>
+      <c r="E43" s="196"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="196"/>
+      <c r="I43" s="196"/>
+      <c r="J43" s="196"/>
+      <c r="K43" s="196"/>
+      <c r="L43" s="196"/>
+      <c r="M43" s="196"/>
+      <c r="N43" s="196"/>
+      <c r="O43" s="196"/>
+      <c r="P43" s="196"/>
+      <c r="Q43" s="196"/>
+      <c r="R43" s="196"/>
+      <c r="S43" s="196"/>
+      <c r="T43" s="196"/>
+      <c r="U43" s="197"/>
     </row>
     <row r="44" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="124"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="131"/>
-      <c r="E44" s="132"/>
-      <c r="F44" s="132"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="132"/>
-      <c r="I44" s="132"/>
-      <c r="J44" s="132"/>
-      <c r="K44" s="132"/>
-      <c r="L44" s="132"/>
-      <c r="M44" s="132"/>
-      <c r="N44" s="132"/>
-      <c r="O44" s="132"/>
-      <c r="P44" s="132"/>
-      <c r="Q44" s="132"/>
-      <c r="R44" s="132"/>
-      <c r="S44" s="132"/>
-      <c r="T44" s="132"/>
-      <c r="U44" s="133"/>
+      <c r="A44" s="187"/>
+      <c r="B44" s="173"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="195"/>
+      <c r="E44" s="196"/>
+      <c r="F44" s="196"/>
+      <c r="G44" s="196"/>
+      <c r="H44" s="196"/>
+      <c r="I44" s="196"/>
+      <c r="J44" s="196"/>
+      <c r="K44" s="196"/>
+      <c r="L44" s="196"/>
+      <c r="M44" s="196"/>
+      <c r="N44" s="196"/>
+      <c r="O44" s="196"/>
+      <c r="P44" s="196"/>
+      <c r="Q44" s="196"/>
+      <c r="R44" s="196"/>
+      <c r="S44" s="196"/>
+      <c r="T44" s="196"/>
+      <c r="U44" s="197"/>
     </row>
     <row r="45" spans="1:21" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="125"/>
-      <c r="B45" s="122"/>
-      <c r="C45" s="123"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="135"/>
-      <c r="F45" s="135"/>
-      <c r="G45" s="135"/>
-      <c r="H45" s="135"/>
-      <c r="I45" s="135"/>
-      <c r="J45" s="135"/>
-      <c r="K45" s="135"/>
-      <c r="L45" s="135"/>
-      <c r="M45" s="135"/>
-      <c r="N45" s="135"/>
-      <c r="O45" s="135"/>
-      <c r="P45" s="135"/>
-      <c r="Q45" s="135"/>
-      <c r="R45" s="135"/>
-      <c r="S45" s="135"/>
-      <c r="T45" s="135"/>
-      <c r="U45" s="136"/>
+      <c r="A45" s="188"/>
+      <c r="B45" s="198"/>
+      <c r="C45" s="199"/>
+      <c r="D45" s="200"/>
+      <c r="E45" s="201"/>
+      <c r="F45" s="201"/>
+      <c r="G45" s="201"/>
+      <c r="H45" s="201"/>
+      <c r="I45" s="201"/>
+      <c r="J45" s="201"/>
+      <c r="K45" s="201"/>
+      <c r="L45" s="201"/>
+      <c r="M45" s="201"/>
+      <c r="N45" s="201"/>
+      <c r="O45" s="201"/>
+      <c r="P45" s="201"/>
+      <c r="Q45" s="201"/>
+      <c r="R45" s="201"/>
+      <c r="S45" s="201"/>
+      <c r="T45" s="201"/>
+      <c r="U45" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="D12:U12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:U13"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="E2:Q2"/>
-    <mergeCell ref="D3:U4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:U5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:U6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:U7"/>
+    <mergeCell ref="J39:O39"/>
+    <mergeCell ref="P39:U39"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="P37:U37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="P38:U38"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="D29:U29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="P31:U31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="J35:O35"/>
+    <mergeCell ref="P35:U35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="P36:U36"/>
+    <mergeCell ref="J33:O33"/>
+    <mergeCell ref="P33:U33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="J34:O34"/>
+    <mergeCell ref="P34:U34"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:U40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:U41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:U42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:U43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:U44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:U45"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="P32:U32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D16:U16"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D30:U30"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:U26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:U27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:U28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:U17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:U18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:U19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:U21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:U22"/>
     <mergeCell ref="B23:C23"/>
@@ -5111,77 +5195,21 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:U20"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="P32:U32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D16:U16"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D30:U30"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:U26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:U27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:U28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:U17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:U18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:U19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:U21"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:U40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:U41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:U42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:U43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:U44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:U45"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="D29:U29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="P31:U31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="J35:O35"/>
-    <mergeCell ref="P35:U35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="P36:U36"/>
-    <mergeCell ref="J33:O33"/>
-    <mergeCell ref="P33:U33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="J34:O34"/>
-    <mergeCell ref="P34:U34"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="J39:O39"/>
-    <mergeCell ref="P39:U39"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="P37:U37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="P38:U38"/>
+    <mergeCell ref="D12:U12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:U13"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="E2:Q2"/>
+    <mergeCell ref="D3:U4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:U5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:U6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:U7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5447,6 +5475,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="09800482-4cb0-41a3-85e1-23f7b0b2224e" xsi:nil="true"/>
@@ -5455,15 +5492,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5486,6 +5514,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A2920B-9B45-410D-9F50-057B8C7FB9C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DD787DA-03FA-4855-9BA5-0C7681A48858}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="09800482-4cb0-41a3-85e1-23f7b0b2224e"/>
@@ -5500,12 +5536,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A2920B-9B45-410D-9F50-057B8C7FB9C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/server/excel/templates/Transmissor de Nível.xlsx
+++ b/server/excel/templates/Transmissor de Nível.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae86ac8ea500c045/Documentos/GitHub/-Lista-de-Itens-para-Folha-de-dados/server/excel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{440F4C65-43B3-4D8F-B4D4-81DF60FCF965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7702618-7AA6-4F46-AD1D-AE7DD07B4F62}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{440F4C65-43B3-4D8F-B4D4-81DF60FCF965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ECAE76B-EF21-428A-BB00-15FBE46D8C37}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="613" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="613" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>FOLHA DE DADOS</t>
   </si>
@@ -355,9 +355,6 @@
   </si>
   <si>
     <t>Fluid</t>
-  </si>
-  <si>
-    <t>(NOTE 1)</t>
   </si>
   <si>
     <t>Density (kg/m³)</t>
@@ -491,25 +488,13 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="65">
     <border>
@@ -1296,7 +1281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1587,15 +1572,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1704,51 +1680,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1767,24 +1710,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1797,39 +1722,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1842,12 +1737,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1866,15 +1755,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1914,74 +1794,164 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2157,6 +2127,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2575,7 +2549,7 @@
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
       <c r="J1" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
@@ -3944,8 +3918,8 @@
   </sheetPr>
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:U40"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3962,54 +3936,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="103"/>
-      <c r="B1" s="104"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="112" t="s">
+      <c r="A1" s="100"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="114"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="111"/>
       <c r="K1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="116"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="113"/>
       <c r="S1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="115"/>
-      <c r="U1" s="117"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="114"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="105"/>
       <c r="D2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="119"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="116"/>
       <c r="R2" s="16" t="s">
         <v>21</v>
       </c>
@@ -4024,1079 +3998,1077 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="106"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="120" t="s">
+      <c r="A3" s="103"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="122"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="119"/>
     </row>
     <row r="4" spans="1:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="109"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="125"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="121"/>
+      <c r="T4" s="121"/>
+      <c r="U4" s="122"/>
     </row>
     <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="130"/>
-      <c r="S5" s="130"/>
-      <c r="T5" s="130"/>
-      <c r="U5" s="131"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="128"/>
     </row>
     <row r="6" spans="1:21" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="133"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="216"/>
-      <c r="E6" s="216"/>
-      <c r="F6" s="216"/>
-      <c r="G6" s="216"/>
-      <c r="H6" s="216"/>
-      <c r="I6" s="216"/>
-      <c r="J6" s="216"/>
-      <c r="K6" s="216"/>
-      <c r="L6" s="216"/>
-      <c r="M6" s="216"/>
-      <c r="N6" s="216"/>
-      <c r="O6" s="216"/>
-      <c r="P6" s="216"/>
-      <c r="Q6" s="216"/>
-      <c r="R6" s="216"/>
-      <c r="S6" s="216"/>
-      <c r="T6" s="216"/>
-      <c r="U6" s="217"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="174"/>
+      <c r="I6" s="174"/>
+      <c r="J6" s="174"/>
+      <c r="K6" s="174"/>
+      <c r="L6" s="174"/>
+      <c r="M6" s="174"/>
+      <c r="N6" s="174"/>
+      <c r="O6" s="174"/>
+      <c r="P6" s="174"/>
+      <c r="Q6" s="174"/>
+      <c r="R6" s="174"/>
+      <c r="S6" s="174"/>
+      <c r="T6" s="174"/>
+      <c r="U6" s="175"/>
     </row>
     <row r="7" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="138"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="139"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="177"/>
+      <c r="T7" s="177"/>
+      <c r="U7" s="178"/>
     </row>
     <row r="8" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="152" t="s">
+      <c r="A8" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="157"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="159"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="180"/>
+      <c r="L8" s="180"/>
+      <c r="M8" s="180"/>
+      <c r="N8" s="180"/>
+      <c r="O8" s="180"/>
+      <c r="P8" s="180"/>
+      <c r="Q8" s="180"/>
+      <c r="R8" s="180"/>
+      <c r="S8" s="180"/>
+      <c r="T8" s="180"/>
+      <c r="U8" s="181"/>
     </row>
     <row r="9" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="153"/>
-      <c r="B9" s="140" t="s">
+      <c r="A9" s="139"/>
+      <c r="B9" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="161"/>
-      <c r="S9" s="161"/>
-      <c r="T9" s="161"/>
-      <c r="U9" s="162"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="183"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="183"/>
+      <c r="L9" s="183"/>
+      <c r="M9" s="183"/>
+      <c r="N9" s="183"/>
+      <c r="O9" s="183"/>
+      <c r="P9" s="183"/>
+      <c r="Q9" s="183"/>
+      <c r="R9" s="183"/>
+      <c r="S9" s="183"/>
+      <c r="T9" s="183"/>
+      <c r="U9" s="184"/>
     </row>
     <row r="10" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="154"/>
-      <c r="B10" s="140" t="s">
+      <c r="A10" s="140"/>
+      <c r="B10" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="141"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="161"/>
-      <c r="S10" s="161"/>
-      <c r="T10" s="161"/>
-      <c r="U10" s="162"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="183"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="183"/>
+      <c r="L10" s="183"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="183"/>
+      <c r="O10" s="183"/>
+      <c r="P10" s="183"/>
+      <c r="Q10" s="183"/>
+      <c r="R10" s="183"/>
+      <c r="S10" s="183"/>
+      <c r="T10" s="183"/>
+      <c r="U10" s="184"/>
     </row>
     <row r="11" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="155"/>
-      <c r="B11" s="101" t="s">
+      <c r="A11" s="141"/>
+      <c r="B11" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="100"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="187"/>
+      <c r="G11" s="187"/>
+      <c r="H11" s="187"/>
+      <c r="I11" s="187"/>
+      <c r="J11" s="187"/>
+      <c r="K11" s="187"/>
+      <c r="L11" s="187"/>
+      <c r="M11" s="187"/>
+      <c r="N11" s="187"/>
+      <c r="O11" s="187"/>
+      <c r="P11" s="187"/>
+      <c r="Q11" s="187"/>
+      <c r="R11" s="187"/>
+      <c r="S11" s="187"/>
+      <c r="T11" s="187"/>
+      <c r="U11" s="188"/>
     </row>
     <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="155"/>
-      <c r="B12" s="166" t="s">
+      <c r="A12" s="141"/>
+      <c r="B12" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="100"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="187"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="187"/>
+      <c r="J12" s="187"/>
+      <c r="K12" s="187"/>
+      <c r="L12" s="187"/>
+      <c r="M12" s="187"/>
+      <c r="N12" s="187"/>
+      <c r="O12" s="187"/>
+      <c r="P12" s="187"/>
+      <c r="Q12" s="187"/>
+      <c r="R12" s="187"/>
+      <c r="S12" s="187"/>
+      <c r="T12" s="187"/>
+      <c r="U12" s="188"/>
     </row>
     <row r="13" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="155"/>
-      <c r="B13" s="101" t="s">
+      <c r="A13" s="141"/>
+      <c r="B13" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="100"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="187"/>
+      <c r="J13" s="187"/>
+      <c r="K13" s="187"/>
+      <c r="L13" s="187"/>
+      <c r="M13" s="187"/>
+      <c r="N13" s="187"/>
+      <c r="O13" s="187"/>
+      <c r="P13" s="187"/>
+      <c r="Q13" s="187"/>
+      <c r="R13" s="187"/>
+      <c r="S13" s="187"/>
+      <c r="T13" s="187"/>
+      <c r="U13" s="188"/>
     </row>
     <row r="14" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="155"/>
-      <c r="B14" s="101" t="s">
+      <c r="A14" s="141"/>
+      <c r="B14" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="100"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="187"/>
+      <c r="K14" s="187"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="187"/>
+      <c r="N14" s="187"/>
+      <c r="O14" s="187"/>
+      <c r="P14" s="187"/>
+      <c r="Q14" s="187"/>
+      <c r="R14" s="187"/>
+      <c r="S14" s="187"/>
+      <c r="T14" s="187"/>
+      <c r="U14" s="188"/>
     </row>
     <row r="15" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="155"/>
-      <c r="B15" s="140" t="s">
+      <c r="A15" s="141"/>
+      <c r="B15" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="141"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="143"/>
-      <c r="S15" s="143"/>
-      <c r="T15" s="143"/>
-      <c r="U15" s="144"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="190"/>
+      <c r="L15" s="190"/>
+      <c r="M15" s="190"/>
+      <c r="N15" s="190"/>
+      <c r="O15" s="190"/>
+      <c r="P15" s="190"/>
+      <c r="Q15" s="190"/>
+      <c r="R15" s="190"/>
+      <c r="S15" s="190"/>
+      <c r="T15" s="190"/>
+      <c r="U15" s="191"/>
     </row>
     <row r="16" spans="1:21" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="155"/>
-      <c r="B16" s="164" t="s">
+      <c r="A16" s="141"/>
+      <c r="B16" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="165"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="176"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="176"/>
-      <c r="M16" s="176"/>
-      <c r="N16" s="176"/>
-      <c r="O16" s="176"/>
-      <c r="P16" s="176"/>
-      <c r="Q16" s="176"/>
-      <c r="R16" s="176"/>
-      <c r="S16" s="176"/>
-      <c r="T16" s="176"/>
-      <c r="U16" s="177"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="193"/>
+      <c r="L16" s="193"/>
+      <c r="M16" s="193"/>
+      <c r="N16" s="193"/>
+      <c r="O16" s="193"/>
+      <c r="P16" s="193"/>
+      <c r="Q16" s="193"/>
+      <c r="R16" s="193"/>
+      <c r="S16" s="193"/>
+      <c r="T16" s="193"/>
+      <c r="U16" s="194"/>
     </row>
     <row r="17" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="186" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="189" t="s">
+      <c r="A17" s="154" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="190"/>
-      <c r="D17" s="191"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="192"/>
-      <c r="M17" s="192"/>
-      <c r="N17" s="192"/>
-      <c r="O17" s="192"/>
-      <c r="P17" s="192"/>
-      <c r="Q17" s="192"/>
-      <c r="R17" s="192"/>
-      <c r="S17" s="192"/>
-      <c r="T17" s="192"/>
-      <c r="U17" s="193"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="196"/>
+      <c r="F17" s="196"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="196"/>
+      <c r="K17" s="196"/>
+      <c r="L17" s="196"/>
+      <c r="M17" s="196"/>
+      <c r="N17" s="196"/>
+      <c r="O17" s="196"/>
+      <c r="P17" s="196"/>
+      <c r="Q17" s="196"/>
+      <c r="R17" s="196"/>
+      <c r="S17" s="196"/>
+      <c r="T17" s="196"/>
+      <c r="U17" s="197"/>
     </row>
     <row r="18" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="187"/>
-      <c r="B18" s="166" t="s">
+      <c r="A18" s="155"/>
+      <c r="B18" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="168"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="161"/>
-      <c r="S18" s="161"/>
-      <c r="T18" s="161"/>
-      <c r="U18" s="162"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="183"/>
+      <c r="L18" s="183"/>
+      <c r="M18" s="183"/>
+      <c r="N18" s="183"/>
+      <c r="O18" s="183"/>
+      <c r="P18" s="183"/>
+      <c r="Q18" s="183"/>
+      <c r="R18" s="183"/>
+      <c r="S18" s="183"/>
+      <c r="T18" s="183"/>
+      <c r="U18" s="184"/>
     </row>
     <row r="19" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="187"/>
-      <c r="B19" s="166" t="s">
+      <c r="A19" s="155"/>
+      <c r="B19" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="168"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="161"/>
-      <c r="N19" s="161"/>
-      <c r="O19" s="161"/>
-      <c r="P19" s="161"/>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="161"/>
-      <c r="S19" s="161"/>
-      <c r="T19" s="161"/>
-      <c r="U19" s="162"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="183"/>
+      <c r="J19" s="183"/>
+      <c r="K19" s="183"/>
+      <c r="L19" s="183"/>
+      <c r="M19" s="183"/>
+      <c r="N19" s="183"/>
+      <c r="O19" s="183"/>
+      <c r="P19" s="183"/>
+      <c r="Q19" s="183"/>
+      <c r="R19" s="183"/>
+      <c r="S19" s="183"/>
+      <c r="T19" s="183"/>
+      <c r="U19" s="184"/>
     </row>
     <row r="20" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="187"/>
-      <c r="B20" s="166" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="167"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="169"/>
-      <c r="K20" s="169"/>
-      <c r="L20" s="169"/>
-      <c r="M20" s="169"/>
-      <c r="N20" s="169"/>
-      <c r="O20" s="169"/>
-      <c r="P20" s="169"/>
-      <c r="Q20" s="169"/>
-      <c r="R20" s="169"/>
-      <c r="S20" s="169"/>
-      <c r="T20" s="169"/>
-      <c r="U20" s="170"/>
+      <c r="A20" s="155"/>
+      <c r="B20" s="146" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="147"/>
+      <c r="D20" s="198"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="199"/>
+      <c r="H20" s="199"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="199"/>
+      <c r="K20" s="199"/>
+      <c r="L20" s="199"/>
+      <c r="M20" s="199"/>
+      <c r="N20" s="199"/>
+      <c r="O20" s="199"/>
+      <c r="P20" s="199"/>
+      <c r="Q20" s="199"/>
+      <c r="R20" s="199"/>
+      <c r="S20" s="199"/>
+      <c r="T20" s="199"/>
+      <c r="U20" s="200"/>
     </row>
     <row r="21" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="187"/>
-      <c r="B21" s="166" t="s">
+      <c r="A21" s="155"/>
+      <c r="B21" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="99"/>
-      <c r="T21" s="99"/>
-      <c r="U21" s="100"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="187"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="187"/>
+      <c r="K21" s="187"/>
+      <c r="L21" s="187"/>
+      <c r="M21" s="187"/>
+      <c r="N21" s="187"/>
+      <c r="O21" s="187"/>
+      <c r="P21" s="187"/>
+      <c r="Q21" s="187"/>
+      <c r="R21" s="187"/>
+      <c r="S21" s="187"/>
+      <c r="T21" s="187"/>
+      <c r="U21" s="188"/>
     </row>
     <row r="22" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="187"/>
-      <c r="B22" s="140" t="s">
+      <c r="A22" s="155"/>
+      <c r="B22" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="141"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="143"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="143"/>
-      <c r="O22" s="143"/>
-      <c r="P22" s="143"/>
-      <c r="Q22" s="143"/>
-      <c r="R22" s="143"/>
-      <c r="S22" s="143"/>
-      <c r="T22" s="143"/>
-      <c r="U22" s="144"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="189"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="190"/>
+      <c r="H22" s="190"/>
+      <c r="I22" s="190"/>
+      <c r="J22" s="190"/>
+      <c r="K22" s="190"/>
+      <c r="L22" s="190"/>
+      <c r="M22" s="190"/>
+      <c r="N22" s="190"/>
+      <c r="O22" s="190"/>
+      <c r="P22" s="190"/>
+      <c r="Q22" s="190"/>
+      <c r="R22" s="190"/>
+      <c r="S22" s="190"/>
+      <c r="T22" s="190"/>
+      <c r="U22" s="191"/>
     </row>
     <row r="23" spans="1:21" ht="21.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="187"/>
-      <c r="B23" s="140" t="s">
+      <c r="A23" s="155"/>
+      <c r="B23" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="141"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="143"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="143"/>
-      <c r="O23" s="143"/>
-      <c r="P23" s="143"/>
-      <c r="Q23" s="143"/>
-      <c r="R23" s="143"/>
-      <c r="S23" s="143"/>
-      <c r="T23" s="143"/>
-      <c r="U23" s="144"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="189"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="190"/>
+      <c r="H23" s="190"/>
+      <c r="I23" s="190"/>
+      <c r="J23" s="190"/>
+      <c r="K23" s="190"/>
+      <c r="L23" s="190"/>
+      <c r="M23" s="190"/>
+      <c r="N23" s="190"/>
+      <c r="O23" s="190"/>
+      <c r="P23" s="190"/>
+      <c r="Q23" s="190"/>
+      <c r="R23" s="190"/>
+      <c r="S23" s="190"/>
+      <c r="T23" s="190"/>
+      <c r="U23" s="191"/>
     </row>
     <row r="24" spans="1:21" ht="21.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="187"/>
-      <c r="B24" s="166" t="s">
+      <c r="A24" s="155"/>
+      <c r="B24" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="150"/>
-      <c r="M24" s="150"/>
-      <c r="N24" s="150"/>
-      <c r="O24" s="150"/>
-      <c r="P24" s="150"/>
-      <c r="Q24" s="150"/>
-      <c r="R24" s="150"/>
-      <c r="S24" s="150"/>
-      <c r="T24" s="150"/>
-      <c r="U24" s="151"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="198"/>
+      <c r="E24" s="199"/>
+      <c r="F24" s="199"/>
+      <c r="G24" s="199"/>
+      <c r="H24" s="199"/>
+      <c r="I24" s="199"/>
+      <c r="J24" s="199"/>
+      <c r="K24" s="199"/>
+      <c r="L24" s="199"/>
+      <c r="M24" s="199"/>
+      <c r="N24" s="199"/>
+      <c r="O24" s="199"/>
+      <c r="P24" s="199"/>
+      <c r="Q24" s="199"/>
+      <c r="R24" s="199"/>
+      <c r="S24" s="199"/>
+      <c r="T24" s="199"/>
+      <c r="U24" s="200"/>
     </row>
     <row r="25" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="188"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="110"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="110"/>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="110"/>
-      <c r="S25" s="110"/>
-      <c r="T25" s="110"/>
-      <c r="U25" s="148"/>
+      <c r="A25" s="156"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="201"/>
+      <c r="E25" s="202"/>
+      <c r="F25" s="202"/>
+      <c r="G25" s="202"/>
+      <c r="H25" s="202"/>
+      <c r="I25" s="202"/>
+      <c r="J25" s="202"/>
+      <c r="K25" s="202"/>
+      <c r="L25" s="202"/>
+      <c r="M25" s="202"/>
+      <c r="N25" s="202"/>
+      <c r="O25" s="202"/>
+      <c r="P25" s="202"/>
+      <c r="Q25" s="202"/>
+      <c r="R25" s="202"/>
+      <c r="S25" s="202"/>
+      <c r="T25" s="202"/>
+      <c r="U25" s="203"/>
     </row>
     <row r="26" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="179" t="s">
+      <c r="A26" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="181" t="s">
+      <c r="B26" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="182"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="183"/>
-      <c r="K26" s="183"/>
-      <c r="L26" s="183"/>
-      <c r="M26" s="183"/>
-      <c r="N26" s="183"/>
-      <c r="O26" s="183"/>
-      <c r="P26" s="183"/>
-      <c r="Q26" s="183"/>
-      <c r="R26" s="183"/>
-      <c r="S26" s="183"/>
-      <c r="T26" s="183"/>
-      <c r="U26" s="184"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="204"/>
+      <c r="E26" s="205"/>
+      <c r="F26" s="205"/>
+      <c r="G26" s="205"/>
+      <c r="H26" s="205"/>
+      <c r="I26" s="205"/>
+      <c r="J26" s="205"/>
+      <c r="K26" s="205"/>
+      <c r="L26" s="205"/>
+      <c r="M26" s="205"/>
+      <c r="N26" s="205"/>
+      <c r="O26" s="205"/>
+      <c r="P26" s="205"/>
+      <c r="Q26" s="205"/>
+      <c r="R26" s="205"/>
+      <c r="S26" s="205"/>
+      <c r="T26" s="205"/>
+      <c r="U26" s="206"/>
     </row>
     <row r="27" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="179"/>
-      <c r="B27" s="166" t="s">
+      <c r="A27" s="149"/>
+      <c r="B27" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="185"/>
-      <c r="D27" s="160"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="161"/>
-      <c r="K27" s="161"/>
-      <c r="L27" s="161"/>
-      <c r="M27" s="161"/>
-      <c r="N27" s="161"/>
-      <c r="O27" s="161"/>
-      <c r="P27" s="161"/>
-      <c r="Q27" s="161"/>
-      <c r="R27" s="161"/>
-      <c r="S27" s="161"/>
-      <c r="T27" s="161"/>
-      <c r="U27" s="162"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="183"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="183"/>
+      <c r="L27" s="183"/>
+      <c r="M27" s="183"/>
+      <c r="N27" s="183"/>
+      <c r="O27" s="183"/>
+      <c r="P27" s="183"/>
+      <c r="Q27" s="183"/>
+      <c r="R27" s="183"/>
+      <c r="S27" s="183"/>
+      <c r="T27" s="183"/>
+      <c r="U27" s="184"/>
     </row>
     <row r="28" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="179"/>
-      <c r="B28" s="166"/>
-      <c r="C28" s="185"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="161"/>
-      <c r="K28" s="161"/>
-      <c r="L28" s="161"/>
-      <c r="M28" s="161"/>
-      <c r="N28" s="161"/>
-      <c r="O28" s="161"/>
-      <c r="P28" s="161"/>
-      <c r="Q28" s="161"/>
-      <c r="R28" s="161"/>
-      <c r="S28" s="161"/>
-      <c r="T28" s="161"/>
-      <c r="U28" s="162"/>
+      <c r="A28" s="149"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="183"/>
+      <c r="K28" s="183"/>
+      <c r="L28" s="183"/>
+      <c r="M28" s="183"/>
+      <c r="N28" s="183"/>
+      <c r="O28" s="183"/>
+      <c r="P28" s="183"/>
+      <c r="Q28" s="183"/>
+      <c r="R28" s="183"/>
+      <c r="S28" s="183"/>
+      <c r="T28" s="183"/>
+      <c r="U28" s="184"/>
     </row>
     <row r="29" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="179"/>
-      <c r="B29" s="166"/>
-      <c r="C29" s="185"/>
-      <c r="D29" s="160"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="161"/>
-      <c r="K29" s="161"/>
-      <c r="L29" s="161"/>
-      <c r="M29" s="161"/>
-      <c r="N29" s="161"/>
-      <c r="O29" s="161"/>
-      <c r="P29" s="161"/>
-      <c r="Q29" s="161"/>
-      <c r="R29" s="161"/>
-      <c r="S29" s="161"/>
-      <c r="T29" s="161"/>
-      <c r="U29" s="162"/>
+      <c r="A29" s="149"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="183"/>
+      <c r="O29" s="183"/>
+      <c r="P29" s="183"/>
+      <c r="Q29" s="183"/>
+      <c r="R29" s="183"/>
+      <c r="S29" s="183"/>
+      <c r="T29" s="183"/>
+      <c r="U29" s="184"/>
     </row>
     <row r="30" spans="1:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="180"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="110"/>
-      <c r="N30" s="110"/>
-      <c r="O30" s="110"/>
-      <c r="P30" s="110"/>
-      <c r="Q30" s="110"/>
-      <c r="R30" s="110"/>
-      <c r="S30" s="110"/>
-      <c r="T30" s="110"/>
-      <c r="U30" s="148"/>
+      <c r="A30" s="150"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="207"/>
+      <c r="E30" s="202"/>
+      <c r="F30" s="202"/>
+      <c r="G30" s="202"/>
+      <c r="H30" s="202"/>
+      <c r="I30" s="202"/>
+      <c r="J30" s="202"/>
+      <c r="K30" s="202"/>
+      <c r="L30" s="202"/>
+      <c r="M30" s="202"/>
+      <c r="N30" s="202"/>
+      <c r="O30" s="202"/>
+      <c r="P30" s="202"/>
+      <c r="Q30" s="202"/>
+      <c r="R30" s="202"/>
+      <c r="S30" s="202"/>
+      <c r="T30" s="202"/>
+      <c r="U30" s="203"/>
     </row>
     <row r="31" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="194" t="s">
+      <c r="A31" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="205" t="s">
+      <c r="B31" s="170" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="206"/>
-      <c r="D31" s="207" t="s">
+      <c r="C31" s="171"/>
+      <c r="D31" s="208" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="208"/>
-      <c r="F31" s="208"/>
-      <c r="G31" s="208"/>
-      <c r="H31" s="208"/>
-      <c r="I31" s="208"/>
-      <c r="J31" s="207" t="s">
+      <c r="E31" s="209"/>
+      <c r="F31" s="209"/>
+      <c r="G31" s="209"/>
+      <c r="H31" s="209"/>
+      <c r="I31" s="209"/>
+      <c r="J31" s="208" t="s">
         <v>48</v>
       </c>
-      <c r="K31" s="208"/>
-      <c r="L31" s="208"/>
-      <c r="M31" s="208"/>
-      <c r="N31" s="208"/>
-      <c r="O31" s="208"/>
-      <c r="P31" s="207" t="s">
+      <c r="K31" s="209"/>
+      <c r="L31" s="209"/>
+      <c r="M31" s="209"/>
+      <c r="N31" s="209"/>
+      <c r="O31" s="209"/>
+      <c r="P31" s="208" t="s">
         <v>49</v>
       </c>
-      <c r="Q31" s="208"/>
-      <c r="R31" s="208"/>
-      <c r="S31" s="208"/>
-      <c r="T31" s="208"/>
-      <c r="U31" s="209"/>
+      <c r="Q31" s="209"/>
+      <c r="R31" s="209"/>
+      <c r="S31" s="209"/>
+      <c r="T31" s="209"/>
+      <c r="U31" s="210"/>
     </row>
     <row r="32" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="203"/>
-      <c r="B32" s="210" t="s">
+      <c r="A32" s="168"/>
+      <c r="B32" s="172" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="211"/>
-      <c r="D32" s="218" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="219"/>
-      <c r="F32" s="219"/>
-      <c r="G32" s="219"/>
-      <c r="H32" s="219"/>
-      <c r="I32" s="220"/>
-      <c r="J32" s="221"/>
-      <c r="K32" s="222"/>
-      <c r="L32" s="222"/>
-      <c r="M32" s="222"/>
-      <c r="N32" s="222"/>
-      <c r="O32" s="223"/>
-      <c r="P32" s="218" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q32" s="219"/>
-      <c r="R32" s="219"/>
-      <c r="S32" s="219"/>
-      <c r="T32" s="219"/>
-      <c r="U32" s="224"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="182" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="211"/>
+      <c r="F32" s="211"/>
+      <c r="G32" s="211"/>
+      <c r="H32" s="211"/>
+      <c r="I32" s="212"/>
+      <c r="J32" s="185"/>
+      <c r="K32" s="213"/>
+      <c r="L32" s="213"/>
+      <c r="M32" s="213"/>
+      <c r="N32" s="213"/>
+      <c r="O32" s="214"/>
+      <c r="P32" s="182" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q32" s="211"/>
+      <c r="R32" s="211"/>
+      <c r="S32" s="211"/>
+      <c r="T32" s="211"/>
+      <c r="U32" s="215"/>
     </row>
     <row r="33" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="203"/>
-      <c r="B33" s="173" t="s">
+      <c r="A33" s="168"/>
+      <c r="B33" s="148" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="135"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="212"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="211"/>
+      <c r="L33" s="211"/>
+      <c r="M33" s="211"/>
+      <c r="N33" s="211"/>
+      <c r="O33" s="212"/>
+      <c r="P33" s="182"/>
+      <c r="Q33" s="211"/>
+      <c r="R33" s="211"/>
+      <c r="S33" s="211"/>
+      <c r="T33" s="211"/>
+      <c r="U33" s="215"/>
+    </row>
+    <row r="34" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="168"/>
+      <c r="B34" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="141"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="219"/>
-      <c r="F33" s="219"/>
-      <c r="G33" s="219"/>
-      <c r="H33" s="219"/>
-      <c r="I33" s="220"/>
-      <c r="J33" s="218"/>
-      <c r="K33" s="219"/>
-      <c r="L33" s="219"/>
-      <c r="M33" s="219"/>
-      <c r="N33" s="219"/>
-      <c r="O33" s="220"/>
-      <c r="P33" s="218"/>
-      <c r="Q33" s="219"/>
-      <c r="R33" s="219"/>
-      <c r="S33" s="219"/>
-      <c r="T33" s="219"/>
-      <c r="U33" s="224"/>
-    </row>
-    <row r="34" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="203"/>
-      <c r="B34" s="173" t="s">
+      <c r="C34" s="135"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="211"/>
+      <c r="F34" s="211"/>
+      <c r="G34" s="211"/>
+      <c r="H34" s="211"/>
+      <c r="I34" s="212"/>
+      <c r="J34" s="182"/>
+      <c r="K34" s="211"/>
+      <c r="L34" s="211"/>
+      <c r="M34" s="211"/>
+      <c r="N34" s="211"/>
+      <c r="O34" s="212"/>
+      <c r="P34" s="182"/>
+      <c r="Q34" s="211"/>
+      <c r="R34" s="211"/>
+      <c r="S34" s="211"/>
+      <c r="T34" s="211"/>
+      <c r="U34" s="215"/>
+    </row>
+    <row r="35" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="168"/>
+      <c r="B35" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="141"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="219"/>
-      <c r="F34" s="219"/>
-      <c r="G34" s="219"/>
-      <c r="H34" s="219"/>
-      <c r="I34" s="220"/>
-      <c r="J34" s="218"/>
-      <c r="K34" s="219"/>
-      <c r="L34" s="219"/>
-      <c r="M34" s="219"/>
-      <c r="N34" s="219"/>
-      <c r="O34" s="220"/>
-      <c r="P34" s="218"/>
-      <c r="Q34" s="219"/>
-      <c r="R34" s="219"/>
-      <c r="S34" s="219"/>
-      <c r="T34" s="219"/>
-      <c r="U34" s="224"/>
-    </row>
-    <row r="35" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="203"/>
-      <c r="B35" s="23" t="s">
+      <c r="C35" s="24"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="211"/>
+      <c r="F35" s="211"/>
+      <c r="G35" s="211"/>
+      <c r="H35" s="211"/>
+      <c r="I35" s="212"/>
+      <c r="J35" s="182"/>
+      <c r="K35" s="211"/>
+      <c r="L35" s="211"/>
+      <c r="M35" s="211"/>
+      <c r="N35" s="211"/>
+      <c r="O35" s="212"/>
+      <c r="P35" s="182"/>
+      <c r="Q35" s="211"/>
+      <c r="R35" s="211"/>
+      <c r="S35" s="211"/>
+      <c r="T35" s="211"/>
+      <c r="U35" s="215"/>
+    </row>
+    <row r="36" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="168"/>
+      <c r="B36" s="148" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="218"/>
-      <c r="E35" s="219"/>
-      <c r="F35" s="219"/>
-      <c r="G35" s="219"/>
-      <c r="H35" s="219"/>
-      <c r="I35" s="220"/>
-      <c r="J35" s="218"/>
-      <c r="K35" s="219"/>
-      <c r="L35" s="219"/>
-      <c r="M35" s="219"/>
-      <c r="N35" s="219"/>
-      <c r="O35" s="220"/>
-      <c r="P35" s="218"/>
-      <c r="Q35" s="219"/>
-      <c r="R35" s="219"/>
-      <c r="S35" s="219"/>
-      <c r="T35" s="219"/>
-      <c r="U35" s="224"/>
-    </row>
-    <row r="36" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="203"/>
-      <c r="B36" s="173" t="s">
+      <c r="C36" s="135"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="211"/>
+      <c r="F36" s="211"/>
+      <c r="G36" s="211"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="212"/>
+      <c r="J36" s="182"/>
+      <c r="K36" s="211"/>
+      <c r="L36" s="211"/>
+      <c r="M36" s="211"/>
+      <c r="N36" s="211"/>
+      <c r="O36" s="212"/>
+      <c r="P36" s="182"/>
+      <c r="Q36" s="211"/>
+      <c r="R36" s="211"/>
+      <c r="S36" s="211"/>
+      <c r="T36" s="211"/>
+      <c r="U36" s="215"/>
+    </row>
+    <row r="37" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="168"/>
+      <c r="B37" s="148" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="141"/>
-      <c r="D36" s="218"/>
-      <c r="E36" s="219"/>
-      <c r="F36" s="219"/>
-      <c r="G36" s="219"/>
-      <c r="H36" s="219"/>
-      <c r="I36" s="220"/>
-      <c r="J36" s="218"/>
-      <c r="K36" s="219"/>
-      <c r="L36" s="219"/>
-      <c r="M36" s="219"/>
-      <c r="N36" s="219"/>
-      <c r="O36" s="220"/>
-      <c r="P36" s="218"/>
-      <c r="Q36" s="219"/>
-      <c r="R36" s="219"/>
-      <c r="S36" s="219"/>
-      <c r="T36" s="219"/>
-      <c r="U36" s="224"/>
-    </row>
-    <row r="37" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="203"/>
-      <c r="B37" s="173" t="s">
+      <c r="C37" s="135"/>
+      <c r="D37" s="182"/>
+      <c r="E37" s="211"/>
+      <c r="F37" s="211"/>
+      <c r="G37" s="211"/>
+      <c r="H37" s="211"/>
+      <c r="I37" s="212"/>
+      <c r="J37" s="182"/>
+      <c r="K37" s="211"/>
+      <c r="L37" s="211"/>
+      <c r="M37" s="211"/>
+      <c r="N37" s="211"/>
+      <c r="O37" s="212"/>
+      <c r="P37" s="182"/>
+      <c r="Q37" s="211"/>
+      <c r="R37" s="211"/>
+      <c r="S37" s="211"/>
+      <c r="T37" s="211"/>
+      <c r="U37" s="215"/>
+    </row>
+    <row r="38" spans="1:21" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="168"/>
+      <c r="B38" s="148" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="141"/>
-      <c r="D37" s="160"/>
-      <c r="E37" s="171"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="171"/>
-      <c r="H37" s="171"/>
-      <c r="I37" s="174"/>
-      <c r="J37" s="160"/>
-      <c r="K37" s="171"/>
-      <c r="L37" s="171"/>
-      <c r="M37" s="171"/>
-      <c r="N37" s="171"/>
-      <c r="O37" s="174"/>
-      <c r="P37" s="160"/>
-      <c r="Q37" s="171"/>
-      <c r="R37" s="171"/>
-      <c r="S37" s="171"/>
-      <c r="T37" s="171"/>
-      <c r="U37" s="172"/>
-    </row>
-    <row r="38" spans="1:21" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="203"/>
-      <c r="B38" s="173" t="s">
+      <c r="C38" s="135"/>
+      <c r="D38" s="182"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="211"/>
+      <c r="G38" s="211"/>
+      <c r="H38" s="211"/>
+      <c r="I38" s="212"/>
+      <c r="J38" s="182"/>
+      <c r="K38" s="211"/>
+      <c r="L38" s="211"/>
+      <c r="M38" s="211"/>
+      <c r="N38" s="211"/>
+      <c r="O38" s="212"/>
+      <c r="P38" s="182"/>
+      <c r="Q38" s="211"/>
+      <c r="R38" s="211"/>
+      <c r="S38" s="211"/>
+      <c r="T38" s="211"/>
+      <c r="U38" s="215"/>
+    </row>
+    <row r="39" spans="1:21" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="169"/>
+      <c r="B39" s="163" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="141"/>
-      <c r="D38" s="218"/>
-      <c r="E38" s="219"/>
-      <c r="F38" s="219"/>
-      <c r="G38" s="219"/>
-      <c r="H38" s="219"/>
-      <c r="I38" s="220"/>
-      <c r="J38" s="218"/>
-      <c r="K38" s="219"/>
-      <c r="L38" s="219"/>
-      <c r="M38" s="219"/>
-      <c r="N38" s="219"/>
-      <c r="O38" s="220"/>
-      <c r="P38" s="218"/>
-      <c r="Q38" s="219"/>
-      <c r="R38" s="219"/>
-      <c r="S38" s="219"/>
-      <c r="T38" s="219"/>
-      <c r="U38" s="224"/>
-    </row>
-    <row r="39" spans="1:21" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="204"/>
-      <c r="B39" s="198" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="199"/>
-      <c r="D39" s="212"/>
-      <c r="E39" s="213"/>
-      <c r="F39" s="213"/>
-      <c r="G39" s="213"/>
-      <c r="H39" s="213"/>
-      <c r="I39" s="214"/>
-      <c r="J39" s="212"/>
-      <c r="K39" s="213"/>
-      <c r="L39" s="213"/>
-      <c r="M39" s="213"/>
-      <c r="N39" s="213"/>
-      <c r="O39" s="214"/>
-      <c r="P39" s="212"/>
-      <c r="Q39" s="213"/>
-      <c r="R39" s="213"/>
-      <c r="S39" s="213"/>
-      <c r="T39" s="213"/>
-      <c r="U39" s="215"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="216"/>
+      <c r="E39" s="217"/>
+      <c r="F39" s="217"/>
+      <c r="G39" s="217"/>
+      <c r="H39" s="217"/>
+      <c r="I39" s="218"/>
+      <c r="J39" s="216"/>
+      <c r="K39" s="217"/>
+      <c r="L39" s="217"/>
+      <c r="M39" s="217"/>
+      <c r="N39" s="217"/>
+      <c r="O39" s="218"/>
+      <c r="P39" s="216"/>
+      <c r="Q39" s="217"/>
+      <c r="R39" s="217"/>
+      <c r="S39" s="217"/>
+      <c r="T39" s="217"/>
+      <c r="U39" s="219"/>
     </row>
     <row r="40" spans="1:21" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="194" t="s">
+      <c r="A40" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="225" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="226"/>
-      <c r="D40" s="227"/>
-      <c r="E40" s="228"/>
-      <c r="F40" s="228"/>
-      <c r="G40" s="228"/>
-      <c r="H40" s="228"/>
-      <c r="I40" s="228"/>
-      <c r="J40" s="228"/>
-      <c r="K40" s="228"/>
-      <c r="L40" s="228"/>
-      <c r="M40" s="228"/>
-      <c r="N40" s="228"/>
-      <c r="O40" s="228"/>
-      <c r="P40" s="228"/>
-      <c r="Q40" s="228"/>
-      <c r="R40" s="228"/>
-      <c r="S40" s="228"/>
-      <c r="T40" s="228"/>
-      <c r="U40" s="229"/>
+      <c r="B40" s="223"/>
+      <c r="C40" s="224"/>
+      <c r="D40" s="220"/>
+      <c r="E40" s="221"/>
+      <c r="F40" s="221"/>
+      <c r="G40" s="221"/>
+      <c r="H40" s="221"/>
+      <c r="I40" s="221"/>
+      <c r="J40" s="221"/>
+      <c r="K40" s="221"/>
+      <c r="L40" s="221"/>
+      <c r="M40" s="221"/>
+      <c r="N40" s="221"/>
+      <c r="O40" s="221"/>
+      <c r="P40" s="221"/>
+      <c r="Q40" s="221"/>
+      <c r="R40" s="221"/>
+      <c r="S40" s="221"/>
+      <c r="T40" s="221"/>
+      <c r="U40" s="222"/>
     </row>
     <row r="41" spans="1:21" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="187"/>
-      <c r="B41" s="173"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="195"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="196"/>
-      <c r="G41" s="196"/>
-      <c r="H41" s="196"/>
-      <c r="I41" s="196"/>
-      <c r="J41" s="196"/>
-      <c r="K41" s="196"/>
-      <c r="L41" s="196"/>
-      <c r="M41" s="196"/>
-      <c r="N41" s="196"/>
-      <c r="O41" s="196"/>
-      <c r="P41" s="196"/>
-      <c r="Q41" s="196"/>
-      <c r="R41" s="196"/>
-      <c r="S41" s="196"/>
-      <c r="T41" s="196"/>
-      <c r="U41" s="197"/>
+      <c r="A41" s="155"/>
+      <c r="B41" s="148"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="160"/>
+      <c r="E41" s="161"/>
+      <c r="F41" s="161"/>
+      <c r="G41" s="161"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="161"/>
+      <c r="J41" s="161"/>
+      <c r="K41" s="161"/>
+      <c r="L41" s="161"/>
+      <c r="M41" s="161"/>
+      <c r="N41" s="161"/>
+      <c r="O41" s="161"/>
+      <c r="P41" s="161"/>
+      <c r="Q41" s="161"/>
+      <c r="R41" s="161"/>
+      <c r="S41" s="161"/>
+      <c r="T41" s="161"/>
+      <c r="U41" s="162"/>
     </row>
     <row r="42" spans="1:21" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="187"/>
-      <c r="B42" s="173"/>
-      <c r="C42" s="141"/>
-      <c r="D42" s="195"/>
-      <c r="E42" s="196"/>
-      <c r="F42" s="196"/>
-      <c r="G42" s="196"/>
-      <c r="H42" s="196"/>
-      <c r="I42" s="196"/>
-      <c r="J42" s="196"/>
-      <c r="K42" s="196"/>
-      <c r="L42" s="196"/>
-      <c r="M42" s="196"/>
-      <c r="N42" s="196"/>
-      <c r="O42" s="196"/>
-      <c r="P42" s="196"/>
-      <c r="Q42" s="196"/>
-      <c r="R42" s="196"/>
-      <c r="S42" s="196"/>
-      <c r="T42" s="196"/>
-      <c r="U42" s="197"/>
+      <c r="A42" s="155"/>
+      <c r="B42" s="148"/>
+      <c r="C42" s="135"/>
+      <c r="D42" s="160"/>
+      <c r="E42" s="161"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="161"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="161"/>
+      <c r="K42" s="161"/>
+      <c r="L42" s="161"/>
+      <c r="M42" s="161"/>
+      <c r="N42" s="161"/>
+      <c r="O42" s="161"/>
+      <c r="P42" s="161"/>
+      <c r="Q42" s="161"/>
+      <c r="R42" s="161"/>
+      <c r="S42" s="161"/>
+      <c r="T42" s="161"/>
+      <c r="U42" s="162"/>
     </row>
     <row r="43" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="187"/>
-      <c r="B43" s="173"/>
-      <c r="C43" s="141"/>
-      <c r="D43" s="195"/>
-      <c r="E43" s="196"/>
-      <c r="F43" s="196"/>
-      <c r="G43" s="196"/>
-      <c r="H43" s="196"/>
-      <c r="I43" s="196"/>
-      <c r="J43" s="196"/>
-      <c r="K43" s="196"/>
-      <c r="L43" s="196"/>
-      <c r="M43" s="196"/>
-      <c r="N43" s="196"/>
-      <c r="O43" s="196"/>
-      <c r="P43" s="196"/>
-      <c r="Q43" s="196"/>
-      <c r="R43" s="196"/>
-      <c r="S43" s="196"/>
-      <c r="T43" s="196"/>
-      <c r="U43" s="197"/>
+      <c r="A43" s="155"/>
+      <c r="B43" s="148"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="160"/>
+      <c r="E43" s="161"/>
+      <c r="F43" s="161"/>
+      <c r="G43" s="161"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="161"/>
+      <c r="J43" s="161"/>
+      <c r="K43" s="161"/>
+      <c r="L43" s="161"/>
+      <c r="M43" s="161"/>
+      <c r="N43" s="161"/>
+      <c r="O43" s="161"/>
+      <c r="P43" s="161"/>
+      <c r="Q43" s="161"/>
+      <c r="R43" s="161"/>
+      <c r="S43" s="161"/>
+      <c r="T43" s="161"/>
+      <c r="U43" s="162"/>
     </row>
     <row r="44" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="187"/>
-      <c r="B44" s="173"/>
-      <c r="C44" s="141"/>
-      <c r="D44" s="195"/>
-      <c r="E44" s="196"/>
-      <c r="F44" s="196"/>
-      <c r="G44" s="196"/>
-      <c r="H44" s="196"/>
-      <c r="I44" s="196"/>
-      <c r="J44" s="196"/>
-      <c r="K44" s="196"/>
-      <c r="L44" s="196"/>
-      <c r="M44" s="196"/>
-      <c r="N44" s="196"/>
-      <c r="O44" s="196"/>
-      <c r="P44" s="196"/>
-      <c r="Q44" s="196"/>
-      <c r="R44" s="196"/>
-      <c r="S44" s="196"/>
-      <c r="T44" s="196"/>
-      <c r="U44" s="197"/>
+      <c r="A44" s="155"/>
+      <c r="B44" s="148"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="160"/>
+      <c r="E44" s="161"/>
+      <c r="F44" s="161"/>
+      <c r="G44" s="161"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="161"/>
+      <c r="J44" s="161"/>
+      <c r="K44" s="161"/>
+      <c r="L44" s="161"/>
+      <c r="M44" s="161"/>
+      <c r="N44" s="161"/>
+      <c r="O44" s="161"/>
+      <c r="P44" s="161"/>
+      <c r="Q44" s="161"/>
+      <c r="R44" s="161"/>
+      <c r="S44" s="161"/>
+      <c r="T44" s="161"/>
+      <c r="U44" s="162"/>
     </row>
     <row r="45" spans="1:21" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="188"/>
-      <c r="B45" s="198"/>
-      <c r="C45" s="199"/>
-      <c r="D45" s="200"/>
-      <c r="E45" s="201"/>
-      <c r="F45" s="201"/>
-      <c r="G45" s="201"/>
-      <c r="H45" s="201"/>
-      <c r="I45" s="201"/>
-      <c r="J45" s="201"/>
-      <c r="K45" s="201"/>
-      <c r="L45" s="201"/>
-      <c r="M45" s="201"/>
-      <c r="N45" s="201"/>
-      <c r="O45" s="201"/>
-      <c r="P45" s="201"/>
-      <c r="Q45" s="201"/>
-      <c r="R45" s="201"/>
-      <c r="S45" s="201"/>
-      <c r="T45" s="201"/>
-      <c r="U45" s="202"/>
+      <c r="A45" s="156"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="166"/>
+      <c r="F45" s="166"/>
+      <c r="G45" s="166"/>
+      <c r="H45" s="166"/>
+      <c r="I45" s="166"/>
+      <c r="J45" s="166"/>
+      <c r="K45" s="166"/>
+      <c r="L45" s="166"/>
+      <c r="M45" s="166"/>
+      <c r="N45" s="166"/>
+      <c r="O45" s="166"/>
+      <c r="P45" s="166"/>
+      <c r="Q45" s="166"/>
+      <c r="R45" s="166"/>
+      <c r="S45" s="166"/>
+      <c r="T45" s="166"/>
+      <c r="U45" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="110">
@@ -5220,6 +5192,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="09800482-4cb0-41a3-85e1-23f7b0b2224e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e4d7e4c3-b78f-4756-8feb-bf68a8958333">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010009C6D626C8523A42B259EE5D5B1F253C" ma:contentTypeVersion="18" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="eea2274a23792c3eba8bc3d2a01aaaf5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e4d7e4c3-b78f-4756-8feb-bf68a8958333" xmlns:ns3="09800482-4cb0-41a3-85e1-23f7b0b2224e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="67581f3b53955eacb98a37a3c22db38b" ns2:_="" ns3:_="">
     <xsd:import namespace="e4d7e4c3-b78f-4756-8feb-bf68a8958333"/>
@@ -5474,27 +5466,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A2920B-9B45-410D-9F50-057B8C7FB9C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="09800482-4cb0-41a3-85e1-23f7b0b2224e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e4d7e4c3-b78f-4756-8feb-bf68a8958333">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DD787DA-03FA-4855-9BA5-0C7681A48858}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="09800482-4cb0-41a3-85e1-23f7b0b2224e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="e4d7e4c3-b78f-4756-8feb-bf68a8958333"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CEAB770-6CDC-4EFB-8A74-9EA8552C6DB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5511,29 +5508,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8A2920B-9B45-410D-9F50-057B8C7FB9C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DD787DA-03FA-4855-9BA5-0C7681A48858}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="09800482-4cb0-41a3-85e1-23f7b0b2224e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="e4d7e4c3-b78f-4756-8feb-bf68a8958333"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>